--- a/notebooks/output/hhinc_ami_pumas_21.xlsx
+++ b/notebooks/output/hhinc_ami_pumas_21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>AMI_range</t>
   </si>
@@ -31,6 +31,9 @@
     <t>hh_e</t>
   </si>
   <si>
+    <t>30_50_ami</t>
+  </si>
+  <si>
     <t>50_80_ami</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>o100_ami</t>
   </si>
   <si>
-    <t>u50_ami</t>
+    <t>u30_ami</t>
   </si>
   <si>
     <t>0400112</t>
@@ -443,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -460,20 +463,23 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,695 +497,839 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
+        <v>8.865187634663844</v>
+      </c>
+      <c r="D4">
         <v>7.553053299831482</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7.326393361837644</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.850860377595597</v>
       </c>
-      <c r="F4">
-        <v>5.982673996584785</v>
-      </c>
       <c r="G4">
+        <v>8.118225960176014</v>
+      </c>
+      <c r="H4">
+        <v>782.534859819756</v>
+      </c>
+      <c r="I4">
         <v>1077.735343165821</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>666.3318148940511</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>2150.989523451503</v>
       </c>
-      <c r="J4">
-        <v>1080.795358211373</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>749.9916988686442</v>
+      </c>
+      <c r="M4">
+        <v>3262</v>
+      </c>
+      <c r="N4">
         <v>5273</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>3361</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>42947</v>
       </c>
-      <c r="N4">
-        <v>6676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="Q4">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>7.338969395720954</v>
+      </c>
+      <c r="D5">
         <v>6.930927778565672</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.840724376888172</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.45719134771786</v>
       </c>
-      <c r="F5">
-        <v>5.967344738448038</v>
-      </c>
       <c r="G5">
+        <v>10.96868932048835</v>
+      </c>
+      <c r="H5">
+        <v>852.9627186064465</v>
+      </c>
+      <c r="I5">
         <v>957.2686664953316</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>744.2992420634661</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1826.27509938108</v>
       </c>
-      <c r="J5">
-        <v>1139.064686594883</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
+        <v>818.9138960347113</v>
+      </c>
+      <c r="M5">
+        <v>4295</v>
+      </c>
+      <c r="N5">
         <v>5104</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>3508</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>27466</v>
       </c>
-      <c r="N5">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="Q5">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
+        <v>7.545359453737769</v>
+      </c>
+      <c r="D6">
         <v>5.54911435193518</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6.293864547770776</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3.030888399684014</v>
       </c>
-      <c r="F6">
-        <v>4.899772390131761</v>
-      </c>
       <c r="G6">
+        <v>6.988937587585244</v>
+      </c>
+      <c r="H6">
+        <v>1041.11031779268</v>
+      </c>
+      <c r="I6">
         <v>1270.957808777498</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>865.0225109462471</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1885.151500836372</v>
       </c>
-      <c r="J6">
-        <v>1466.965424233177</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>1128.115106184316</v>
+      </c>
+      <c r="M6">
+        <v>5099</v>
+      </c>
+      <c r="N6">
         <v>8464</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>5079</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>22985</v>
       </c>
-      <c r="N6">
-        <v>11064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="Q6">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
+        <v>6.917724700063349</v>
+      </c>
+      <c r="D7">
         <v>5.440685926405861</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7.600760348137298</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.491819120924244</v>
       </c>
-      <c r="F7">
-        <v>4.845096253739801</v>
-      </c>
       <c r="G7">
+        <v>7.158460158467935</v>
+      </c>
+      <c r="H7">
+        <v>1315.796184138856</v>
+      </c>
+      <c r="I7">
         <v>1538.809510645933</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>874.5448765958212</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1617.282254049405</v>
       </c>
-      <c r="J7">
-        <v>1605.042693651013</v>
-      </c>
-      <c r="K7">
+      <c r="L7">
+        <v>1009.808778196088</v>
+      </c>
+      <c r="M7">
+        <v>7029</v>
+      </c>
+      <c r="N7">
         <v>10452</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>4252</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>17116</v>
       </c>
-      <c r="N7">
-        <v>12242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="Q7">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
+        <v>6.812998503237917</v>
+      </c>
+      <c r="D8">
         <v>5.077273391747632</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.385706645346041</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.700971080372723</v>
       </c>
-      <c r="F8">
-        <v>3.812286514075172</v>
-      </c>
       <c r="G8">
+        <v>5.687295524652254</v>
+      </c>
+      <c r="H8">
+        <v>1161.292727864889</v>
+      </c>
+      <c r="I8">
         <v>1279.671763903248</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>871.9538538381058</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1678.414709289691</v>
       </c>
-      <c r="J8">
-        <v>1280.645944133028</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
+        <v>941.0962907787386</v>
+      </c>
+      <c r="M8">
+        <v>6299</v>
+      </c>
+      <c r="N8">
         <v>9314</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>5983</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>22964</v>
       </c>
-      <c r="N8">
-        <v>12414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="Q8">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
+        <v>7.909416533326747</v>
+      </c>
+      <c r="D9">
         <v>6.530117713407674</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.637212192785165</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.676352402228086</v>
       </c>
-      <c r="F9">
-        <v>5.13551693706855</v>
-      </c>
       <c r="G9">
+        <v>7.211993286030715</v>
+      </c>
+      <c r="H9">
+        <v>838.3585995179062</v>
+      </c>
+      <c r="I9">
         <v>1467.0183414259</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>965.1249486899351</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1921.955340021914</v>
       </c>
-      <c r="J9">
-        <v>1182.481879018395</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>896.1671033336919</v>
+      </c>
+      <c r="M9">
+        <v>3917</v>
+      </c>
+      <c r="N9">
         <v>8302</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>4670</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>26538</v>
       </c>
-      <c r="N9">
-        <v>8509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="Q9">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
+        <v>6.493975250128835</v>
+      </c>
+      <c r="D10">
         <v>5.625607024956223</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6.089196613327917</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.830768503627088</v>
       </c>
-      <c r="F10">
-        <v>4.182366020543095</v>
-      </c>
       <c r="G10">
+        <v>5.151657238373645</v>
+      </c>
+      <c r="H10">
+        <v>1161.214547581271</v>
+      </c>
+      <c r="I10">
         <v>1278.278101977911</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1051.924766074671</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1431.218752730736</v>
       </c>
-      <c r="J10">
-        <v>1803.344314291332</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
+        <v>1300.092268350116</v>
+      </c>
+      <c r="M10">
+        <v>6608</v>
+      </c>
+      <c r="N10">
         <v>8397</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>6384</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>18684</v>
       </c>
-      <c r="N10">
-        <v>15934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="Q10">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
+        <v>8.966435282421688</v>
+      </c>
+      <c r="D11">
         <v>5.137363478728665</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8.78801706335666</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.504935636570422</v>
       </c>
-      <c r="F11">
-        <v>4.132723063866823</v>
-      </c>
       <c r="G11">
+        <v>4.900692331722483</v>
+      </c>
+      <c r="H11">
+        <v>934.3834583322846</v>
+      </c>
+      <c r="I11">
         <v>900.1437519873562</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>788.0888809800422</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1454.439403970006</v>
       </c>
-      <c r="J11">
-        <v>1152.881441350324</v>
-      </c>
-      <c r="K11">
+      <c r="L11">
+        <v>856.4209515455877</v>
+      </c>
+      <c r="M11">
+        <v>3851</v>
+      </c>
+      <c r="N11">
         <v>6475</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>3314</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>15335</v>
       </c>
-      <c r="N11">
-        <v>10309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="Q11">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
+        <v>11.51491146217185</v>
+      </c>
+      <c r="D12">
         <v>7.768447247073635</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>9.625970725614478</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.165595238246044</v>
       </c>
-      <c r="F12">
-        <v>6.75050790153235</v>
-      </c>
       <c r="G12">
+        <v>8.62503642710859</v>
+      </c>
+      <c r="H12">
+        <v>553.0835796372687</v>
+      </c>
+      <c r="I12">
         <v>1114.565892722644</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>787.6950711672949</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1682.684864942594</v>
       </c>
-      <c r="J12">
-        <v>1064.420604015102</v>
-      </c>
-      <c r="K12">
+      <c r="L12">
+        <v>945.7191412894474</v>
+      </c>
+      <c r="M12">
+        <v>1775</v>
+      </c>
+      <c r="N12">
         <v>5302</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>3024</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>28714</v>
       </c>
-      <c r="N12">
-        <v>5827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="Q12">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
+        <v>7.892266140276846</v>
+      </c>
+      <c r="D13">
         <v>5.662384705670644</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8.321738152524546</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.221893092559333</v>
       </c>
-      <c r="F13">
-        <v>4.624055294790083</v>
-      </c>
       <c r="G13">
+        <v>6.571832361373961</v>
+      </c>
+      <c r="H13">
+        <v>1034.089936330189</v>
+      </c>
+      <c r="I13">
         <v>1550.948973895499</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1228.627445777146</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1531.495795112576</v>
       </c>
-      <c r="J13">
-        <v>1329.986492959374</v>
-      </c>
-      <c r="K13">
+      <c r="L13">
+        <v>1029.133614063305</v>
+      </c>
+      <c r="M13">
+        <v>4842</v>
+      </c>
+      <c r="N13">
         <v>10122</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>5456</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>17566</v>
       </c>
-      <c r="N13">
-        <v>10629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="Q13">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
+        <v>7.766873063275074</v>
+      </c>
+      <c r="D14">
         <v>5.649760504561295</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7.251448413622407</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.924723660604006</v>
       </c>
-      <c r="F14">
-        <v>4.889995061704399</v>
-      </c>
       <c r="G14">
+        <v>7.273299771811065</v>
+      </c>
+      <c r="H14">
+        <v>1148.598324019324</v>
+      </c>
+      <c r="I14">
         <v>1164.21113984642</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>724.6626436099422</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>1272.007299054825</v>
       </c>
-      <c r="J14">
-        <v>1400.522390184061</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
+        <v>1007.50781065862</v>
+      </c>
+      <c r="M14">
+        <v>5465</v>
+      </c>
+      <c r="N14">
         <v>7615</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>3693</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>9545</v>
       </c>
-      <c r="N14">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="Q14">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
+        <v>7.87548197466154</v>
+      </c>
+      <c r="D15">
         <v>5.36976564720918</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>8.317253330042908</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.253305666637634</v>
       </c>
-      <c r="F15">
-        <v>5.417594843152929</v>
-      </c>
       <c r="G15">
+        <v>6.814520510230215</v>
+      </c>
+      <c r="H15">
+        <v>1026.9891910142</v>
+      </c>
+      <c r="I15">
         <v>1462.371669403635</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1023.379441767263</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1174.549727162765</v>
       </c>
-      <c r="J15">
-        <v>1515.566005693088</v>
-      </c>
-      <c r="K15">
+      <c r="L15">
+        <v>1017.718107447367</v>
+      </c>
+      <c r="M15">
+        <v>4819</v>
+      </c>
+      <c r="N15">
         <v>10064</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>4547</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>10205</v>
       </c>
-      <c r="N15">
-        <v>10338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="Q15">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
+        <v>8.016061436481927</v>
+      </c>
+      <c r="D16">
         <v>5.566549328913562</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>9.905887903036367</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4.005971912094731</v>
       </c>
-      <c r="F16">
-        <v>4.774746431869117</v>
-      </c>
       <c r="G16">
+        <v>7.414962991934948</v>
+      </c>
+      <c r="H16">
+        <v>1152.478036523094</v>
+      </c>
+      <c r="I16">
         <v>1373.313917627494</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1011.6426010056</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1758.507000466589</v>
       </c>
-      <c r="J16">
-        <v>1559.385188013011</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
+        <v>1355.596482555742</v>
+      </c>
+      <c r="M16">
+        <v>5313</v>
+      </c>
+      <c r="N16">
         <v>9117</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>3774</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>16222</v>
       </c>
-      <c r="N16">
-        <v>12069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="Q16">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
+        <v>10.1079362219818</v>
+      </c>
+      <c r="D17">
         <v>7.777601191639596</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7.4291924489001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.739979232293925</v>
       </c>
-      <c r="F17">
-        <v>6.951082704752394</v>
-      </c>
       <c r="G17">
+        <v>9.758198279460849</v>
+      </c>
+      <c r="H17">
+        <v>1187.911610038285</v>
+      </c>
+      <c r="I17">
         <v>861.8493946856377</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>844.1493450495002</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1960.381188666824</v>
       </c>
-      <c r="J17">
-        <v>1493.874600016054</v>
-      </c>
-      <c r="K17">
+      <c r="L17">
+        <v>950.349366685418</v>
+      </c>
+      <c r="M17">
+        <v>4343</v>
+      </c>
+      <c r="N17">
         <v>4095</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>4199</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>26440</v>
       </c>
-      <c r="N17">
-        <v>7942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="Q17">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18">
+        <v>9.78336278747439</v>
+      </c>
+      <c r="D18">
         <v>7.581882829355068</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7.387722084415089</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.992800933300711</v>
       </c>
-      <c r="F18">
-        <v>6.570278802294849</v>
-      </c>
       <c r="G18">
+        <v>9.79521369422204</v>
+      </c>
+      <c r="H18">
+        <v>663.1743083887335</v>
+      </c>
+      <c r="I18">
         <v>1218.69581030835</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>649.1194804184743</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2038.714691160984</v>
       </c>
-      <c r="J18">
-        <v>993.331652944398</v>
-      </c>
-      <c r="K18">
+      <c r="L18">
+        <v>816.9177904794797</v>
+      </c>
+      <c r="M18">
+        <v>2505</v>
+      </c>
+      <c r="N18">
         <v>5940</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>3247</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>37806</v>
       </c>
-      <c r="N18">
-        <v>5587</v>
+      <c r="Q18">
+        <v>3082</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
